--- a/biology/Zoologie/Austrochernes_guanophilus/Austrochernes_guanophilus.xlsx
+++ b/biology/Zoologie/Austrochernes_guanophilus/Austrochernes_guanophilus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austrochernes guanophilus est une espèce de pseudoscorpions de la famille des Chernetidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre dans la grotte Fig Tree Cave à Wombeyan.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre dans la grotte Fig Tree Cave à Wombeyan.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3 mm et la femelle paratype 3 mm[2].
-Le mâle décrit par Harvey et Volschenk en 2007 mesure 3,36 mm et la femelle 3,97 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3 mm et la femelle paratype 3 mm.
+Le mâle décrit par Harvey et Volschenk en 2007 mesure 3,36 mm et la femelle 3,97 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Sundochernes guanophilus par Beier en 1967. Elle a été placée dans le genre Troglochernes par Harvey et Volschenk en 2007[3] puis dans le genre Austrochernes par Harvey en 2018[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Sundochernes guanophilus par Beier en 1967. Elle a été placée dans le genre Troglochernes par Harvey et Volschenk en 2007 puis dans le genre Austrochernes par Harvey en 2018.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Beier, 1967 : Some Pseudoscorpionidea from Australia, chiefly from caves. Australian Zoologist, vol. 14, p. 199-205 (texte intégral).</t>
         </is>
